--- a/email_addresses.xlsx
+++ b/email_addresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpanchal/Code/automating-virtual-meetings-webex-teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gshuttle/Desktop/temptemp/automating-virtual-meetings-webex-teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C63094-F804-0A40-BE13-3799E29F69ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6C5101-D0CD-5D48-AB7A-28CF6B5EDA69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{2833524E-8BF6-1345-84DA-D665169C5309}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{2833524E-8BF6-1345-84DA-D665169C5309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,32 +65,32 @@
     <t>Message0</t>
   </si>
   <si>
-    <t>cpanchal@cisco.com, jiracloud.bot@webex.bot</t>
-  </si>
-  <si>
-    <t>cpanchal@cisco.com, scrumgenius@webex.bot</t>
-  </si>
-  <si>
-    <t>cpanchal@cisco.com, webex@webex.bot</t>
-  </si>
-  <si>
     <t>Test Meeting4</t>
   </si>
   <si>
     <t>Message4</t>
   </si>
   <si>
-    <t>GoogleTasks.bot@webex.bot, cpanchal@cisco.com, gshuttle@cisco.com</t>
-  </si>
-  <si>
-    <t>cpanchal@cisco.com, memebot@webex.bot, gshuttle@cisco.com</t>
+    <t>example@example.com, webex@webex.bot</t>
+  </si>
+  <si>
+    <t>example@example.com, scrumgenius@webex.bot</t>
+  </si>
+  <si>
+    <t>example@example.com, memebot@webex.bot</t>
+  </si>
+  <si>
+    <t>example@example.com, jiracloud.bot@webex.bot</t>
+  </si>
+  <si>
+    <t>GoogleTasks.bot@webex.bot, example@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,10 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,7 +473,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A2:XFD2 A4:XFD6"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -503,8 +512,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -514,8 +523,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -526,15 +535,15 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
